--- a/Sample_salesperson_1.xlsx
+++ b/Sample_salesperson_1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moumo\Documents\A_Projet_Data_Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moumo\Documents\A_Projet_Data_Analyse\Project-Data-Analyse-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D53C1-7C5B-49DA-A73E-D2A43D3F322A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A03FFB-E0AB-476E-9136-2E623F36DC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="716" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="20" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="50">
   <si>
     <t>Region</t>
   </si>
@@ -214,7 +214,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -278,6 +278,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -330,7 +335,7 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -434,6 +439,7 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ctx_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -610,6 +616,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -635,7 +646,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique3</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1311,8 +1322,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique4</c:name>
-    <c:fmtId val="3"/>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique3</c:name>
+    <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1324,10 +1335,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1335,12 +1343,1240 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sales amount per Manager </a:t>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Sales amounts per Region</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46398192630984425"/>
+          <c:y val="4.5712776883902947E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.15357766143106458"/>
+              <c:y val="9.6852275621748279E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.15357766143106458"/>
+              <c:y val="0.18049959505072161"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.18150087260034903"/>
+              <c:y val="-0.13624395181688262"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.15357766143106458"/>
+              <c:y val="9.6852275621748279E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.15357766143106458"/>
+              <c:y val="0.18049959505072161"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.18150087260034903"/>
+              <c:y val="-0.13624395181688262"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.1739006529754199"/>
+              <c:y val="0.10370871262836825"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.23070660001152168"/>
+                  <c:h val="0.18491810606854062"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.13325466988670925"/>
+              <c:y val="0.18735603205734158"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.23070660001152168"/>
+                  <c:h val="0.18491810606854062"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.16321018021042927"/>
+              <c:y val="-0.12595929630695266"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator> </c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.22664200170265059"/>
+                  <c:h val="0.19177454307516059"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25365461795976368"/>
+          <c:y val="0.30562486975469072"/>
+          <c:w val="0.33650233314343869"/>
+          <c:h val="0.56763470199333355"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphique croisé dynamique'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CC0B-41CE-8436-FD7950AF3DF3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CC0B-41CE-8436-FD7950AF3DF3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CC0B-41CE-8436-FD7950AF3DF3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1739006529754199"/>
+                  <c:y val="0.10370871262836825"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23070660001152168"/>
+                      <c:h val="0.18491810606854062"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CC0B-41CE-8436-FD7950AF3DF3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13325466988670925"/>
+                  <c:y val="0.18735603205734158"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23070660001152168"/>
+                      <c:h val="0.18491810606854062"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CC0B-41CE-8436-FD7950AF3DF3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16321018021042927"/>
+                  <c:y val="-0.12595929630695266"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22664200170265059"/>
+                      <c:h val="0.19177454307516059"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CC0B-41CE-8436-FD7950AF3DF3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graphique croisé dynamique'!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphique croisé dynamique'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>829769.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CC0B-41CE-8436-FD7950AF3DF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82748127688227457"/>
+          <c:y val="0.33685119779064959"/>
+          <c:w val="0.1688621459630979"/>
+          <c:h val="0.34838929920291306"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1354,12 +2590,183 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique4</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Sales amount per Manager </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3324574534092849"/>
+          <c:y val="3.9506036745406835E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2362,8 +3769,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="0.15173527037933818"/>
-              <c:y val="-0.15483867471821755"/>
+              <c:x val="0.1683611469197682"/>
+              <c:y val="-0.14150534138488424"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2379,7 +3786,7 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -2407,7 +3814,14 @@
           <c:showBubbleSize val="0"/>
           <c:separator> </c:separator>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.22760824983848682"/>
+                  <c:h val="0.19313333333333332"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2426,8 +3840,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="0.14850686037126715"/>
-              <c:y val="0.13189961179700013"/>
+              <c:x val="0.1672109714792509"/>
+              <c:y val="0.14189961179700011"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2443,7 +3857,7 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -2471,7 +3885,14 @@
           <c:showBubbleSize val="0"/>
           <c:separator> </c:separator>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.23176471897359427"/>
+                  <c:h val="0.18646666666666667"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2490,8 +3911,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-0.15819209039548024"/>
-              <c:y val="6.881718876365224E-2"/>
+              <c:x val="-0.14364444842260399"/>
+              <c:y val="8.8817188763652216E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2507,7 +3928,7 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -2535,7 +3956,14 @@
           <c:showBubbleSize val="0"/>
           <c:separator> </c:separator>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.22345178070337926"/>
+                  <c:h val="0.20646666666666663"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2554,8 +3982,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-0.1807909604519774"/>
-              <c:y val="-0.18924726910004366"/>
+              <c:x val="-0.1516956765062249"/>
+              <c:y val="-0.17591393576671033"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2571,7 +3999,7 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -2599,7 +4027,14 @@
           <c:showBubbleSize val="0"/>
           <c:separator> </c:separator>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.25254706464913185"/>
+                  <c:h val="0.19313333333333332"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2709,10 +4144,43 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15173527037933818"/>
-                  <c:y val="-0.15483867471821755"/>
+                  <c:x val="0.1683611469197682"/>
+                  <c:y val="-0.14150534138488424"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2721,7 +4189,14 @@
               <c:showBubbleSize val="0"/>
               <c:separator> </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22760824983848682"/>
+                      <c:h val="0.19313333333333332"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-66CB-4131-90D0-06914F4D4B0D}"/>
                 </c:ext>
@@ -2731,10 +4206,43 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14850686037126715"/>
-                  <c:y val="0.13189961179700013"/>
+                  <c:x val="0.1672109714792509"/>
+                  <c:y val="0.14189961179700011"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2743,7 +4251,14 @@
               <c:showBubbleSize val="0"/>
               <c:separator> </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23176471897359427"/>
+                      <c:h val="0.18646666666666667"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-66CB-4131-90D0-06914F4D4B0D}"/>
                 </c:ext>
@@ -2753,10 +4268,43 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15819209039548024"/>
-                  <c:y val="6.881718876365224E-2"/>
+                  <c:x val="-0.14364444842260399"/>
+                  <c:y val="8.8817188763652216E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2765,7 +4313,14 @@
               <c:showBubbleSize val="0"/>
               <c:separator> </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22345178070337926"/>
+                      <c:h val="0.20646666666666663"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-66CB-4131-90D0-06914F4D4B0D}"/>
                 </c:ext>
@@ -2775,10 +4330,43 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1807909604519774"/>
-                  <c:y val="-0.18924726910004366"/>
+                  <c:x val="-0.1516956765062249"/>
+                  <c:y val="-0.17591393576671033"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2787,7 +4375,14 @@
               <c:showBubbleSize val="0"/>
               <c:separator> </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25254706464913185"/>
+                      <c:h val="0.19313333333333332"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-66CB-4131-90D0-06914F4D4B0D}"/>
                 </c:ext>
@@ -3009,7 +4604,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3023,7 +4618,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique5</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -3036,10 +4631,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3047,19 +4639,56 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Sales amount per salesMan</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3068,10 +4697,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3558,7 +5184,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3572,7 +5198,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique6</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique6</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -3585,10 +5211,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3596,18 +5219,37 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Sales amount</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t> per Product</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3621,11 +5263,40 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3634,10 +5305,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3821,6 +5489,250 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.20645436373710674"/>
+                  <c:h val="0.15667394784416225"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.22166453869384348"/>
+                  <c:h val="0.16366519942132254"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.24782403866780173"/>
+                  <c:h val="0.19163020572996373"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.20271729231225558"/>
+                  <c:h val="0.19163020572996373"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3862,7 +5774,233 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-4709-44E0-BAC8-B4E683AEB695}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4709-44E0-BAC8-B4E683AEB695}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4709-44E0-BAC8-B4E683AEB695}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4709-44E0-BAC8-B4E683AEB695}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.20645436373710674"/>
+                      <c:h val="0.15667394784416225"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4709-44E0-BAC8-B4E683AEB695}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22166453869384348"/>
+                      <c:h val="0.16366519942132254"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4709-44E0-BAC8-B4E683AEB695}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24782403866780173"/>
+                      <c:h val="0.19163020572996373"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4709-44E0-BAC8-B4E683AEB695}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.20271729231225558"/>
+                      <c:h val="0.19163020572996373"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4709-44E0-BAC8-B4E683AEB695}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4119,7 +6257,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4133,7 +6271,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique7</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique7</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -4146,10 +6284,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4157,17 +6292,39 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Unit sales</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>per Product</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4175,17 +6332,46 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.6017699115044247E-2"/>
-          <c:y val="4.2328032251199015E-2"/>
+          <c:x val="2.2508910070451721E-2"/>
+          <c:y val="4.2327992951464465E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4194,10 +6380,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4678,7 +6861,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4692,7 +6875,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique8</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique8</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -4705,10 +6888,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4716,19 +6896,56 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Sales amount per Month</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4737,10 +6954,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5405,7 +7619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5419,7 +7633,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique9</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique9</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -5432,10 +7646,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5443,19 +7654,56 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Sales per Year</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -5464,10 +7712,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5933,7 +8178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5947,7 +8192,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique10</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique10</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -5960,10 +8205,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5971,9 +8213,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Unit price per Product</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5981,17 +8231,46 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33750769764257826"/>
-          <c:y val="4.7019402948463219E-2"/>
+          <c:x val="0.52991290337241959"/>
+          <c:y val="4.7019615843876907E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -6000,10 +8279,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6474,6 +8750,891 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique1</c:name>
+    <c:fmtId val="7"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>The Three Better </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Salesman</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47858099947304528"/>
+          <c:y val="3.5087539597138874E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.28509281341995152"/>
+                  <c:h val="0.17522807017543859"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.28509281341995152"/>
+                  <c:h val="0.17522807017543859"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout>
+                <c:manualLayout>
+                  <c:w val="0.28023106694280364"/>
+                  <c:h val="0.17522807017543859"/>
+                </c:manualLayout>
+              </c15:layout>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3479211248626653E-2"/>
+          <c:y val="0.33747368421052631"/>
+          <c:w val="0.89304157750274671"/>
+          <c:h val="0.49973145462080404"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphique croisé dynamique'!$C$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D7B1-4390-A099-1199F2560AD5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D7B1-4390-A099-1199F2560AD5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D7B1-4390-A099-1199F2560AD5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28509281341995152"/>
+                      <c:h val="0.17522807017543859"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D7B1-4390-A099-1199F2560AD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28509281341995152"/>
+                      <c:h val="0.17522807017543859"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D7B1-4390-A099-1199F2560AD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28023106694280364"/>
+                      <c:h val="0.17522807017543859"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D7B1-4390-A099-1199F2560AD5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graphique croisé dynamique'!$B$123:$B$126</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Alexander</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Luis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphique croisé dynamique'!$C$123:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>236703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7B1-4390-A099-1199F2560AD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="453152512"/>
+        <c:axId val="453168352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="453152512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453168352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453168352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="453152512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6488,7 +9649,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique4</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7566,7 +10727,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique5</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -8003,7 +11164,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique6</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -8441,7 +11602,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique7</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -8876,7 +12037,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique8</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique8</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -9489,7 +12650,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique9</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique9</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -9902,7 +13063,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique10</c:name>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique10</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -10329,44 +13490,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sample_salesperson_data_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique3</c:name>
-    <c:fmtId val="9"/>
+    <c:name>[Sample_salesperson_1.xlsx]Graphique croisé dynamique!Tableau croisé dynamique1</c:name>
+    <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sales amounts per Region</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45047972406590531"/>
-          <c:y val="3.8740910248699356E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10400,244 +13528,6 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="0.15357766143106458"/>
-              <c:y val="9.6852275621748279E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.15357766143106458"/>
-              <c:y val="0.18049959505072161"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.18150087260034903"/>
-              <c:y val="-0.13624395181688262"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -10682,445 +13572,11 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="0.15357766143106458"/>
-              <c:y val="9.6852275621748279E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.15357766143106458"/>
-              <c:y val="0.18049959505072161"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.18150087260034903"/>
-              <c:y val="-0.13624395181688262"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="0.15357766143106458"/>
-              <c:y val="9.6852275621748279E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.15357766143106458"/>
-              <c:y val="0.18049959505072161"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-0.18150087260034903"/>
-              <c:y val="-0.13624395181688262"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator> </c:separator>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -11129,14 +13585,16 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphique croisé dynamique'!$C$3</c:f>
+              <c:f>'Graphique croisé dynamique'!$C$122</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11145,239 +13603,177 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CC0B-41CE-8436-FD7950AF3DF3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CC0B-41CE-8436-FD7950AF3DF3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CC0B-41CE-8436-FD7950AF3DF3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15357766143106458"/>
-                  <c:y val="9.6852275621748279E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-CC0B-41CE-8436-FD7950AF3DF3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15357766143106458"/>
-                  <c:y val="0.18049959505072161"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CC0B-41CE-8436-FD7950AF3DF3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.18150087260034903"/>
-                  <c:y val="-0.13624395181688262"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator> </c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-CC0B-41CE-8436-FD7950AF3DF3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphique croisé dynamique'!$B$4:$B$7</c:f>
+              <c:f>'Graphique croisé dynamique'!$B$123:$B$126</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Central</c:v>
+                  <c:v>Alexander</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>East</c:v>
+                  <c:v>Luis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>West</c:v>
+                  <c:v>Steven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphique croisé dynamique'!$C$4:$C$7</c:f>
+              <c:f>'Graphique croisé dynamique'!$C$123:$C$126</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>829769.5</c:v>
+                  <c:v>236703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321007</c:v>
+                  <c:v>206373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154899</c:v>
+                  <c:v>199690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CC0B-41CE-8436-FD7950AF3DF3}"/>
+              <c16:uniqueId val="{00000000-C483-4E9F-B4A8-56D595A8D1D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="453152512"/>
+        <c:axId val="453168352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="453152512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453168352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453168352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453152512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -11388,16 +13784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.82748127688227457"/>
-          <c:y val="0.33685119779064959"/>
-          <c:w val="0.15157631474076211"/>
-          <c:h val="0.34624917319678095"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11475,6 +13861,7 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -11767,6 +14154,86 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15648,6 +18115,1012 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20854,6 +24327,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Graphique 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B212309-9099-AD26-7204-3D9DB5663627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20861,16 +24370,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>188119</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -20906,8 +24415,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12370593" y="523876"/>
-              <a:ext cx="3319464" cy="702468"/>
+              <a:off x="6584157" y="297655"/>
+              <a:ext cx="2452688" cy="904875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20939,16 +24448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>130967</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -20984,8 +24493,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12370593" y="69055"/>
-              <a:ext cx="3302796" cy="395289"/>
+              <a:off x="12632531" y="297657"/>
+              <a:ext cx="3000374" cy="881064"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21023,10 +24532,10 @@
       <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21058,13 +24567,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>128593</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21094,15 +24603,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>11905</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21117,14 +24626,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9334499" y="476250"/>
+          <a:off x="9370218" y="476251"/>
           <a:ext cx="2928937" cy="726281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="3175"/>
+        <a:ln w="9525">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21155,16 +24666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>154782</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:colOff>250030</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21179,38 +24690,28 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906001" y="59530"/>
-          <a:ext cx="1988344" cy="523876"/>
+          <a:off x="9727406" y="142875"/>
+          <a:ext cx="2274093" cy="523876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -21235,15 +24736,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>11908</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>83345</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21258,8 +24759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47626" y="95249"/>
-          <a:ext cx="9215438" cy="1119187"/>
+          <a:off x="95250" y="59531"/>
+          <a:ext cx="6238876" cy="1119187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21269,16 +24770,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -21301,16 +24800,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21339,16 +24838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>119064</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>11911</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>226223</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21377,16 +24876,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>154780</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59537</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23818</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21415,16 +24914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21453,16 +24952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>35720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>59538</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>226224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21500,7 +24999,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>83343</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21525,6 +25024,174 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F2A643-D669-43A4-A9D7-359120DCF1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>146842</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>125800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0B8C2E-5E7A-BB74-6D95-021C04687D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6344616" y="222366"/>
+          <a:ext cx="1962246" cy="314780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400"/>
+            <a:t>Selected per Manager</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>189934</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>89859</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAB3D5F-4C94-4FF8-A02E-7A4B0C469494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12518519" y="232248"/>
+          <a:ext cx="1912755" cy="310145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400"/>
+            <a:t>Selected per Region</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22122,7 +25789,645 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC3E6A6D-D108-4F9D-BEE3-E76E767DA0AF}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B4B88FE-21EC-451F-8A4B-7ED1916A2930}" name="Tableau croisé dynamique8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="B79:C92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Sale_amt" fld="7" baseField="8" baseItem="1" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{898A6096-9B64-41FE-8E20-496374DAE1A7}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="B122:C126" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="12">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Sale_amt" fld="7" baseField="3" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="3" filterVal="3"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60F600ED-EF7F-46C3-94C1-682100382207}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B50:C56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Sale_amt" fld="7" baseField="4" baseItem="4" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC3E6A6D-D108-4F9D-BEE3-E76E767DA0AF}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B64:C70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0">
@@ -22305,7 +26610,195 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6E92F87-EB1C-4BCA-AA9A-8D71A12A7745}" name="Tableau croisé dynamique9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B98:C101" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="10"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Sale_amt" fld="7" baseField="10" baseItem="2" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C0D66B-EC63-41AB-8C60-84AB000352A2}" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B17:C22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -22581,759 +27074,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60F600ED-EF7F-46C3-94C1-682100382207}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B50:C56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="44">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Sale_amt" fld="7" baseField="4" baseItem="4" numFmtId="166"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476B7D56-105F-4D94-B2DC-AE5F399D6902}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B32:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="44">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Sale_amt" fld="7" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31E22839-7157-4969-8E95-48D55D3DB8A5}" name="Tableau croisé dynamique10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B109:C115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="44">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Max. de Unit_price" fld="6" subtotal="max" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B4B88FE-21EC-451F-8A4B-7ED1916A2930}" name="Tableau croisé dynamique8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="B79:C92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="44">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="8"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Sale_amt" fld="7" baseField="8" baseItem="1" numFmtId="166"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24368576-C7B5-44AF-9F13-34EE7550AB70}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24368576-C7B5-44AF-9F13-34EE7550AB70}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="B3:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0">
@@ -23566,10 +27308,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6E92F87-EB1C-4BCA-AA9A-8D71A12A7745}" name="Tableau croisé dynamique9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="B98:C101" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{476B7D56-105F-4D94-B2DC-AE5F399D6902}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B32:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+    <pivotField numFmtId="14" showAll="0">
       <items count="44">
         <item x="0"/>
         <item x="1"/>
@@ -23634,58 +27376,102 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField numFmtId="166" showAll="0"/>
     <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="10"/>
-    <field x="0"/>
+  <rowFields count="1">
+    <field x="3"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -23695,9 +27481,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Somme de Sale_amt" fld="7" baseField="10" baseItem="2" numFmtId="166"/>
+    <dataField name="Somme de Sale_amt" fld="7" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -23707,31 +27493,154 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1">
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2">
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31E22839-7157-4969-8E95-48D55D3DB8A5}" name="Tableau croisé dynamique10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B109:C115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Max. de Unit_price" fld="6" subtotal="max" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -23808,8 +27717,8 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Manager 2" xr10:uid="{E305BD7D-8529-4D32-8C8D-442C1AD7C04F}" cache="Segment_Manager" caption="Manager" columnCount="2" showCaption="0" rowHeight="241300"/>
-  <slicer name="Region 3" xr10:uid="{7561E70A-553E-49AD-9166-13DD43B60DE2}" cache="Segment_Region" caption="Region" columnCount="3" showCaption="0" rowHeight="241300"/>
+  <slicer name="Manager 2" xr10:uid="{E305BD7D-8529-4D32-8C8D-442C1AD7C04F}" cache="Segment_Manager" caption="Manager" columnCount="2" rowHeight="241300"/>
+  <slicer name="Region 3" xr10:uid="{7561E70A-553E-49AD-9166-13DD43B60DE2}" cache="Segment_Region" caption="Region" columnCount="2" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -23835,7 +27744,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Rouge orange">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23843,34 +27752,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="505046"/>
       </a:dk2>
       <a:lt2>
         <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="E84C22"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="FFBD47"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="B64926"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FF8427"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="CC9900"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="B22600"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="CC9900"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="666699"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2007 - 2010">
@@ -24121,7 +28030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB45334-31D5-488A-9096-E464CB44ECD2}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -25328,8 +29237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F4DE19-71BD-4B57-B02E-96142A915A9F}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26541,16 +30450,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721A097E-6A78-4BD2-9435-FA8D3ED521B2}">
-  <dimension ref="B3:C115"/>
+  <dimension ref="B3:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -26819,7 +30728,7 @@
       <c r="B65" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="39">
         <v>278</v>
       </c>
     </row>
@@ -26827,7 +30736,7 @@
       <c r="B66" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="39">
         <v>10</v>
       </c>
     </row>
@@ -26835,7 +30744,7 @@
       <c r="B67" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="39">
         <v>722</v>
       </c>
     </row>
@@ -26843,7 +30752,7 @@
       <c r="B68" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="39">
         <v>716</v>
       </c>
     </row>
@@ -26851,7 +30760,7 @@
       <c r="B69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="39">
         <v>395</v>
       </c>
     </row>
@@ -26859,7 +30768,7 @@
       <c r="B70" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="39">
         <v>2121</v>
       </c>
     </row>
@@ -27063,13 +30972,53 @@
         <v>1198</v>
       </c>
     </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="36">
+        <v>236703</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="36">
+        <v>206373</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="36">
+        <v>199690</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="36">
+        <v>642766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId10"/>
+        <x14:slicer r:id="rId11"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -27080,8 +31029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83750985-4609-4625-B72F-769716313F20}">
   <dimension ref="AM4:AZ14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CC16" sqref="CC16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AN31" sqref="AN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27135,6 +31084,7 @@
   <mergeCells count="1">
     <mergeCell ref="AM4:AW6"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
